--- a/data/trans_orig/P57B3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>50262</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39066</v>
+        <v>38938</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62595</v>
+        <v>63207</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08701876428452943</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06763416991841399</v>
+        <v>0.06741346387052909</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1083710777148266</v>
+        <v>0.1094305914660016</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>138</v>
@@ -762,19 +762,19 @@
         <v>78323</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>65594</v>
+        <v>66501</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>90693</v>
+        <v>91519</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.09559198955756253</v>
+        <v>0.09559198955756254</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08005636796269119</v>
+        <v>0.08116359168738001</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.110689799364049</v>
+        <v>0.1116978147430217</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>205</v>
@@ -783,19 +783,19 @@
         <v>128585</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>111719</v>
+        <v>111178</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>146852</v>
+        <v>146412</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09204718027159801</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07997347857096759</v>
+        <v>0.07958638742611941</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1051233785370298</v>
+        <v>0.1048085756159403</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>61675</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49708</v>
+        <v>50277</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>77138</v>
+        <v>77589</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1067776409672128</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08605919592261091</v>
+        <v>0.0870445471376992</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1335489900234176</v>
+        <v>0.1343290431998059</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>237</v>
@@ -833,19 +833,19 @@
         <v>129825</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>116049</v>
+        <v>116132</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>145453</v>
+        <v>146678</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1584491524748906</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1416366248995066</v>
+        <v>0.1417375582142574</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1775232526159266</v>
+        <v>0.1790181287677761</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>319</v>
@@ -854,19 +854,19 @@
         <v>191500</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>171890</v>
+        <v>171470</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>213399</v>
+        <v>213566</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1370843045933841</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1230472518139051</v>
+        <v>0.1227463986799765</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1527610227766423</v>
+        <v>0.1528808018103922</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>194620</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>173611</v>
+        <v>173546</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>218922</v>
+        <v>218909</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3369450026857065</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3005722745805229</v>
+        <v>0.300459505679735</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3790189029366567</v>
+        <v>0.3789960538744571</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>527</v>
@@ -904,19 +904,19 @@
         <v>310127</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>289120</v>
+        <v>286968</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>332020</v>
+        <v>330062</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3785060558379264</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3528667972411155</v>
+        <v>0.3502409942493251</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4052259223162695</v>
+        <v>0.4028366630653423</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>753</v>
@@ -925,19 +925,19 @@
         <v>504747</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>472501</v>
+        <v>473197</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>535589</v>
+        <v>536183</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3613216237885476</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3382382290283478</v>
+        <v>0.3387367813638106</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3833993993663368</v>
+        <v>0.3838251920641227</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>271045</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>248617</v>
+        <v>249273</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>295006</v>
+        <v>295273</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.4692585920625512</v>
+        <v>0.4692585920625513</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4304296026279859</v>
+        <v>0.4315661604428963</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5107427872061177</v>
+        <v>0.5112045650329229</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>521</v>
@@ -975,19 +975,19 @@
         <v>301071</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>280945</v>
+        <v>280734</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>323299</v>
+        <v>322800</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3674528021296205</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3428901785998965</v>
+        <v>0.3426316882897001</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3945825161008105</v>
+        <v>0.393973095411037</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>836</v>
@@ -996,19 +996,19 @@
         <v>572115</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>537967</v>
+        <v>539144</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>603122</v>
+        <v>605656</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4095468913464703</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3851022838610207</v>
+        <v>0.3859442298343282</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4317428704141665</v>
+        <v>0.4335568212106443</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>83863</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>65894</v>
+        <v>67402</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>103226</v>
+        <v>103545</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03761643122133634</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02955685062011912</v>
+        <v>0.03023303358460135</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04630200829323915</v>
+        <v>0.04644511527662354</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>95</v>
@@ -1121,19 +1121,19 @@
         <v>67563</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>55233</v>
+        <v>54752</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>83386</v>
+        <v>83439</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03114886550947555</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0254642759312828</v>
+        <v>0.0252426017321259</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03844408269545962</v>
+        <v>0.03846854276727318</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>181</v>
@@ -1142,19 +1142,19 @@
         <v>151425</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>129107</v>
+        <v>129501</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>177811</v>
+        <v>174577</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.03442704125252291</v>
+        <v>0.0344270412525229</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02935278687601027</v>
+        <v>0.02944235122682864</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04042585377472218</v>
+        <v>0.03969061301542594</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>166250</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>141188</v>
+        <v>142642</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>192416</v>
+        <v>195628</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0745713480036571</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06332964108986903</v>
+        <v>0.06398186458475914</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08630805619615105</v>
+        <v>0.0877486719361877</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>231</v>
@@ -1192,19 +1192,19 @@
         <v>171671</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>150262</v>
+        <v>149638</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>196442</v>
+        <v>194971</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07914661272243462</v>
+        <v>0.07914661272243463</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06927615530639959</v>
+        <v>0.06898858720166701</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09056656502914011</v>
+        <v>0.08988872161212096</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>402</v>
@@ -1213,19 +1213,19 @@
         <v>337922</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>307544</v>
+        <v>305115</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>372616</v>
+        <v>373817</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07682757608835583</v>
+        <v>0.07682757608835585</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06992121760179193</v>
+        <v>0.06936875385998441</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08471548696744795</v>
+        <v>0.08498837959128556</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>748330</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>696007</v>
+        <v>698939</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>797534</v>
+        <v>800269</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3356625622366265</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3121930247810765</v>
+        <v>0.3135082084230991</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3577328520860957</v>
+        <v>0.3589597745719409</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1058</v>
@@ -1263,19 +1263,19 @@
         <v>751451</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>709709</v>
+        <v>712041</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>789460</v>
+        <v>793434</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3464454974935412</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.327201148713857</v>
+        <v>0.3282761057393415</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.363969168249004</v>
+        <v>0.3658011007670929</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1727</v>
@@ -1284,19 +1284,19 @@
         <v>1499781</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1437213</v>
+        <v>1443381</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1567371</v>
+        <v>1570282</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.3409800166043029</v>
+        <v>0.3409800166043028</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3267548320582666</v>
+        <v>0.3281572116894657</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3563467605357516</v>
+        <v>0.3570086989689767</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>1230969</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1179914</v>
+        <v>1173559</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1284166</v>
+        <v>1280228</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5521496585383802</v>
+        <v>0.5521496585383801</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5292487840616</v>
+        <v>0.5263985274846049</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5760109752073254</v>
+        <v>0.5742448576068454</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1534</v>
@@ -1334,19 +1334,19 @@
         <v>1178346</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1133832</v>
+        <v>1137682</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1221524</v>
+        <v>1219580</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.5432590242745488</v>
+        <v>0.5432590242745486</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5227365931829921</v>
+        <v>0.524511801964146</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5631659499691773</v>
+        <v>0.5622693139315336</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2599</v>
@@ -1355,19 +1355,19 @@
         <v>2409315</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2338047</v>
+        <v>2340969</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2477151</v>
+        <v>2472842</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5477653660548183</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.531562373641782</v>
+        <v>0.5322266376530214</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5631882633005187</v>
+        <v>0.5622084863195881</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>14056</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8204</v>
+        <v>7810</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23475</v>
+        <v>23806</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01975272655277564</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01152948258896949</v>
+        <v>0.01097541003049073</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03298977534763774</v>
+        <v>0.03345447913687039</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -1480,19 +1480,19 @@
         <v>14665</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9577</v>
+        <v>8532</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22824</v>
+        <v>22438</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01997606777646855</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01304481764977893</v>
+        <v>0.01162204091391716</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03108970558200132</v>
+        <v>0.03056390486937907</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -1501,19 +1501,19 @@
         <v>28721</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>20736</v>
+        <v>20689</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>41655</v>
+        <v>40752</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01986613854636195</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01434294702982959</v>
+        <v>0.01431023613452966</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02881297959146413</v>
+        <v>0.02818773354072203</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>40934</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>28445</v>
+        <v>29783</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>54881</v>
+        <v>55204</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05752423824160161</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03997365163526585</v>
+        <v>0.04185502055962622</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07712421245580017</v>
+        <v>0.07757823129299776</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>62</v>
@@ -1551,19 +1551,19 @@
         <v>42760</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>32813</v>
+        <v>33340</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>54192</v>
+        <v>55168</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.05824597906652267</v>
+        <v>0.05824597906652269</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04469641685164346</v>
+        <v>0.04541481286334</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07381726890771091</v>
+        <v>0.07514721458457885</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>102</v>
@@ -1572,19 +1572,19 @@
         <v>83694</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>68847</v>
+        <v>68022</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>102863</v>
+        <v>102467</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.05789073603566526</v>
+        <v>0.05789073603566525</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04762108863772378</v>
+        <v>0.04705038608923611</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07115006995014149</v>
+        <v>0.07087582052343884</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>195151</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>169529</v>
+        <v>171930</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>220184</v>
+        <v>221615</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2742476922733049</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2382405523595953</v>
+        <v>0.2416151084764378</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3094267448287218</v>
+        <v>0.3114376190656532</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>274</v>
@@ -1622,19 +1622,19 @@
         <v>190278</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>171365</v>
+        <v>171686</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>212977</v>
+        <v>211478</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2591880580373682</v>
+        <v>0.2591880580373683</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.233425665262948</v>
+        <v>0.2338633207897684</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2901074484253324</v>
+        <v>0.2880651504943818</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>468</v>
@@ -1643,19 +1643,19 @@
         <v>385429</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>351520</v>
+        <v>355304</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>420652</v>
+        <v>421761</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2666004558467389</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2431455281178332</v>
+        <v>0.2457628414553272</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2909638477700788</v>
+        <v>0.291730937875389</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>461447</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>434804</v>
+        <v>436009</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>489416</v>
+        <v>491034</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6484753429323179</v>
+        <v>0.6484753429323178</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6110339474293699</v>
+        <v>0.6127280927561128</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6877802845122111</v>
+        <v>0.6900552204171044</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>647</v>
@@ -1693,19 +1693,19 @@
         <v>486428</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>461994</v>
+        <v>463892</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>509273</v>
+        <v>508808</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6625898951196404</v>
+        <v>0.6625898951196405</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6293072322487713</v>
+        <v>0.6318931823495952</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6937090052839084</v>
+        <v>0.6930754089984538</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1080</v>
@@ -1714,19 +1714,19 @@
         <v>947875</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>912370</v>
+        <v>907929</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>984651</v>
+        <v>980931</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6556426695712338</v>
+        <v>0.6556426695712337</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6310839262520344</v>
+        <v>0.6280123871379956</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6810807238103429</v>
+        <v>0.6785076258960828</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>148181</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>123850</v>
+        <v>125337</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>170928</v>
+        <v>171066</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04211347445745314</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03519872183657537</v>
+        <v>0.03562114246448009</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04857846254938804</v>
+        <v>0.04861759731824952</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>253</v>
@@ -1839,19 +1839,19 @@
         <v>160551</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>140984</v>
+        <v>140872</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>182605</v>
+        <v>182782</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.04312973178306567</v>
+        <v>0.04312973178306566</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03787343722473138</v>
+        <v>0.0378433623405472</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04905435074826274</v>
+        <v>0.04910173147472363</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>420</v>
@@ -1860,19 +1860,19 @@
         <v>308731</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>279885</v>
+        <v>280881</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>344021</v>
+        <v>341383</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04263591181091494</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03865216855705134</v>
+        <v>0.03878979887955362</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04750944120639201</v>
+        <v>0.04714508944495727</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>268859</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>239910</v>
+        <v>238102</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>304633</v>
+        <v>301595</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07641069085627637</v>
+        <v>0.07641069085627636</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06818339874265851</v>
+        <v>0.06766963814124409</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0865778521650629</v>
+        <v>0.08571459131148158</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>530</v>
@@ -1910,19 +1910,19 @@
         <v>344256</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>315510</v>
+        <v>315277</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>377646</v>
+        <v>377835</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.09247965389273474</v>
+        <v>0.09247965389273473</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08475732725940714</v>
+        <v>0.08469468907978692</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1014494059781104</v>
+        <v>0.1015000243818887</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>823</v>
@@ -1931,19 +1931,19 @@
         <v>613115</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>568540</v>
+        <v>571064</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>658662</v>
+        <v>664834</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.08467142001420205</v>
+        <v>0.08467142001420204</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07851565942197564</v>
+        <v>0.07886418980254936</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09096150810610891</v>
+        <v>0.09181386331594266</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>1138101</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1079529</v>
+        <v>1078455</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1206523</v>
+        <v>1203437</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3234527985612549</v>
+        <v>0.323452798561255</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.306806313151505</v>
+        <v>0.306500961326338</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3428984105279558</v>
+        <v>0.3420215018038879</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1859</v>
@@ -1981,19 +1981,19 @@
         <v>1251856</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1200550</v>
+        <v>1201664</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1302145</v>
+        <v>1305094</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.3362938014222818</v>
+        <v>0.3362938014222817</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3225110266065604</v>
+        <v>0.3228104306648038</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3498031384635667</v>
+        <v>0.3505954852433665</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2948</v>
@@ -2002,19 +2002,19 @@
         <v>2389957</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2312805</v>
+        <v>2311663</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2475017</v>
+        <v>2467956</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3300540986271284</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3193992561213487</v>
+        <v>0.319241626007489</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3418009299974751</v>
+        <v>0.3408257545411191</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>1963460</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1900327</v>
+        <v>1899711</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2023434</v>
+        <v>2031567</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5580230361250156</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.540080352502024</v>
+        <v>0.5399052757009608</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5750676504488722</v>
+        <v>0.5773791851451509</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2702</v>
@@ -2052,19 +2052,19 @@
         <v>1965845</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1911276</v>
+        <v>1912649</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2021465</v>
+        <v>2023042</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5280968129019179</v>
+        <v>0.5280968129019178</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.513437662586298</v>
+        <v>0.5138065420841934</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5430384614158755</v>
+        <v>0.5434621963421187</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4515</v>
@@ -2073,19 +2073,19 @@
         <v>3929304</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3842719</v>
+        <v>3843769</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4016011</v>
+        <v>4011579</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5426385695477547</v>
+        <v>0.5426385695477545</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5306811232989131</v>
+        <v>0.5308261227778195</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5546127165994046</v>
+        <v>0.5540006549626048</v>
       </c>
     </row>
     <row r="23">
